--- a/biology/Botanique/George_Leonard_Staunton/George_Leonard_Staunton.xlsx
+++ b/biology/Botanique/George_Leonard_Staunton/George_Leonard_Staunton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">George Leonard Staunton, 1er baronnet, né le 10 avril 1737 et mort le 14 janvier 1801, est un botaniste britannique travaillant pour la Compagnie anglaise des Indes orientales et aussi un diplomate.
 Il accompagne Lord Macartney lors de son ambassade en Chine en 1792-1794. Grand voyageur, Staunton était devenu membre de la Royal Society le 15 février 1787.
@@ -514,7 +526,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Traduction de l'article de langue anglaise de Wikipédia (version du 11 janvier 2007).</t>
         </is>
